--- a/report/acuiti_responses.xlsx
+++ b/report/acuiti_responses.xlsx
@@ -444,15 +444,15 @@
     </row>
     <row r="6">
       <c r="A6" t="str">
-        <v>https://cag.abbvie.com:9999/bf/16a183f6-c871-4082-850b-a1f7a2ecd0b1?type=js3&amp;sn=v_4_srv_-2D22_sn_8GGUS5JQ2GI091IACPNU5PR1VGC4KCOM&amp;svrid=-22&amp;flavor=cors&amp;vi=CMEKKPKEEDVWAVUFDPRMQAALARGJQUPT-0&amp;modifiedSince=1713766999397&amp;rf=https%3A%2F%2Facuiti-preview.abbviepro.com%2Fbasic-login.html&amp;bp=3&amp;app=c68a93205a30c351&amp;crc=1386425078&amp;en=oao3vfhf&amp;end=1</v>
+        <v>https://acuiti-preview.abbviepro.com/bin/public/abbvie-commons/basic-login</v>
       </c>
       <c r="B6">
-        <v>200</v>
+        <v>302</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="str">
-        <v>https://cag.abbvie.com:9999/bf/16a183f6-c871-4082-850b-a1f7a2ecd0b1?type=js3&amp;sn=v_4_srv_-2D22_sn_8GGUS5JQ2GI091IACPNU5PR1VGC4KCOM&amp;svrid=-22&amp;flavor=cors&amp;vi=CMEKKPKEEDVWAVUFDPRMQAALARGJQUPT-0&amp;modifiedSince=1713766999397&amp;rf=https%3A%2F%2Facuiti-preview.abbviepro.com%2Fbasic-login.html&amp;bp=3&amp;app=c68a93205a30c351&amp;crc=4000519717&amp;en=oao3vfhf&amp;end=1</v>
+        <v>https://cag.abbvie.com:9999/bf/16a183f6-c871-4082-850b-a1f7a2ecd0b1?type=js3&amp;sn=v_4_srv_-2D63_sn_C7A8HPT2NH63CA53SEI0IFGTJVI820KJ&amp;svrid=-63&amp;flavor=cors&amp;vi=QCSNFVHKSMDFCFCMHAHRUKLQJVAADNIB-0&amp;modifiedSince=1713766999397&amp;rf=https%3A%2F%2Facuiti-preview.abbviepro.com%2Fbasic-login.html&amp;bp=3&amp;app=c68a93205a30c351&amp;crc=4207847994&amp;en=oao3vfhf&amp;end=1</v>
       </c>
       <c r="B7">
         <v>200</v>
@@ -460,7 +460,7 @@
     </row>
     <row r="8">
       <c r="A8" t="str">
-        <v>https://cag.abbvie.com:9999/bf/16a183f6-c871-4082-850b-a1f7a2ecd0b1?type=js3&amp;sn=v_4_srv_2_sn_8GGUS5JQ2GI091IACPNU5PR1VGC4KCOM_app-3Ac68a93205a30c351_1_ol_0_perc_100000_mul_1&amp;svrid=2&amp;flavor=cors&amp;vi=CMEKKPKEEDVWAVUFDPRMQAALARGJQUPT-0&amp;modifiedSince=1718215562229&amp;rf=https%3A%2F%2Facuiti-preview.abbviepro.com%2Fbasic-login.html&amp;bp=3&amp;app=c68a93205a30c351&amp;crc=3151275978&amp;en=oao3vfhf&amp;end=1</v>
+        <v>https://cag.abbvie.com:9999/bf/16a183f6-c871-4082-850b-a1f7a2ecd0b1?type=js3&amp;sn=v_4_srv_-2D63_sn_C7A8HPT2NH63CA53SEI0IFGTJVI820KJ&amp;svrid=-63&amp;flavor=cors&amp;vi=QCSNFVHKSMDFCFCMHAHRUKLQJVAADNIB-0&amp;modifiedSince=1713766999397&amp;rf=https%3A%2F%2Facuiti-preview.abbviepro.com%2Fbasic-login.html&amp;bp=3&amp;app=c68a93205a30c351&amp;crc=4263852186&amp;en=oao3vfhf&amp;end=1</v>
       </c>
       <c r="B8">
         <v>200</v>
@@ -468,10 +468,10 @@
     </row>
     <row r="9">
       <c r="A9" t="str">
-        <v>https://acuiti-preview.abbviepro.com/bin/public/abbvie-commons/basic-login</v>
+        <v>https://cag.abbvie.com:9999/bf/16a183f6-c871-4082-850b-a1f7a2ecd0b1?type=js3&amp;sn=v_4_srv_8_sn_C7A8HPT2NH63CA53SEI0IFGTJVI820KJ_app-3Ac68a93205a30c351_1_ol_0_perc_100000_mul_1&amp;svrid=8&amp;flavor=cors&amp;vi=QCSNFVHKSMDFCFCMHAHRUKLQJVAADNIB-0&amp;modifiedSince=1720290200630&amp;rf=https%3A%2F%2Facuiti-preview.abbviepro.com%2Fbasic-login.html&amp;bp=3&amp;app=c68a93205a30c351&amp;crc=2911120879&amp;en=oao3vfhf&amp;end=1</v>
       </c>
       <c r="B9">
-        <v>302</v>
+        <v>200</v>
       </c>
     </row>
     <row r="10">
@@ -532,7 +532,7 @@
     </row>
     <row r="17">
       <c r="A17" t="str">
-        <v>https://acuiti-preview.abbviepro.com/etc.clientlibs/abbvie-pro/clientlibs/publish-header.min.js</v>
+        <v>https://acuiti-preview.abbviepro.com/etc.clientlibs/abbvie-pro/clientlibs/publish-header.min.css</v>
       </c>
       <c r="B17">
         <v>304</v>
@@ -540,7 +540,7 @@
     </row>
     <row r="18">
       <c r="A18" t="str">
-        <v>https://acuiti-preview.abbviepro.com/etc.clientlibs/abbvie-pro/clientlibs/publish-header.min.css</v>
+        <v>https://acuiti-preview.abbviepro.com/etc.clientlibs/abbvie-pro/clientlibs/publish-header.min.js</v>
       </c>
       <c r="B18">
         <v>304</v>
@@ -636,7 +636,7 @@
     </row>
     <row r="30">
       <c r="A30" t="str">
-        <v>https://acuiti-preview.abbviepro.com/content/abbvie-pro-acuiti/index/jcr:content/body/column_control/par1-100col/image_extension/item_1.coreimg.png/1662647235867-Vector.png</v>
+        <v>https://acuiti-preview.abbviepro.com/content/abbvie-pro-acuiti/index/jcr:content/body/column_control/par1-100col/image_extension_232433702/item_1.coreimg.png/1662647235751-logo-final_1.png</v>
       </c>
       <c r="B30">
         <v>200</v>
@@ -644,7 +644,7 @@
     </row>
     <row r="31">
       <c r="A31" t="str">
-        <v>https://acuiti-preview.abbviepro.com/content/abbvie-pro-acuiti/index/jcr:content/body/column_control/par1-100col/image_extension_232433702/item_1.coreimg.png/1662647235751-logo-final_1.png</v>
+        <v>https://acuiti-preview.abbviepro.com/content/abbvie-pro-acuiti/index/jcr:content/body/column_control/par1-100col/image_extension/item_1.coreimg.png/1662647235867-Vector.png</v>
       </c>
       <c r="B31">
         <v>200</v>
@@ -652,7 +652,7 @@
     </row>
     <row r="32">
       <c r="A32" t="str">
-        <v>https://cag.abbvie.com:9999/bf/16a183f6-c871-4082-850b-a1f7a2ecd0b1?type=js3&amp;sn=v_4_srv_2_sn_8GGUS5JQ2GI091IACPNU5PR1VGC4KCOM_app-3Ac68a93205a30c351_1_ol_0_perc_100000_mul_1&amp;svrid=2&amp;flavor=cors&amp;vi=CMEKKPKEEDVWAVUFDPRMQAALARGJQUPT-0&amp;modifiedSince=1718215562229&amp;rf=https%3A%2F%2Facuiti-preview.abbviepro.com%2F&amp;bp=3&amp;app=c68a93205a30c351&amp;crc=3547996719&amp;en=oao3vfhf&amp;end=1</v>
+        <v>https://cag.abbvie.com:9999/bf/16a183f6-c871-4082-850b-a1f7a2ecd0b1?type=js3&amp;sn=v_4_srv_8_sn_C7A8HPT2NH63CA53SEI0IFGTJVI820KJ_app-3Ac68a93205a30c351_1_ol_0_perc_100000_mul_1&amp;svrid=8&amp;flavor=cors&amp;vi=QCSNFVHKSMDFCFCMHAHRUKLQJVAADNIB-0&amp;modifiedSince=1720290200630&amp;rf=https%3A%2F%2Facuiti-preview.abbviepro.com%2F&amp;bp=3&amp;app=c68a93205a30c351&amp;crc=3875169855&amp;en=oao3vfhf&amp;end=1</v>
       </c>
       <c r="B32">
         <v>200</v>
@@ -660,7 +660,7 @@
     </row>
     <row r="33">
       <c r="A33" t="str">
-        <v>https://cag.abbvie.com:9999/bf/16a183f6-c871-4082-850b-a1f7a2ecd0b1?type=js3&amp;sn=v_4_srv_2_sn_8GGUS5JQ2GI091IACPNU5PR1VGC4KCOM_app-3Ac68a93205a30c351_1_ol_0_perc_100000_mul_1&amp;svrid=2&amp;flavor=cors&amp;vi=CMEKKPKEEDVWAVUFDPRMQAALARGJQUPT-0&amp;modifiedSince=1718215562229&amp;rf=https%3A%2F%2Facuiti-preview.abbviepro.com%2F&amp;bp=3&amp;app=c68a93205a30c351&amp;crc=3547996719&amp;en=oao3vfhf&amp;end=1</v>
+        <v>https://cag.abbvie.com:9999/bf/16a183f6-c871-4082-850b-a1f7a2ecd0b1?type=js3&amp;sn=v_4_srv_8_sn_C7A8HPT2NH63CA53SEI0IFGTJVI820KJ_app-3Ac68a93205a30c351_1_ol_0_perc_100000_mul_1&amp;svrid=8&amp;flavor=cors&amp;vi=QCSNFVHKSMDFCFCMHAHRUKLQJVAADNIB-0&amp;modifiedSince=1720290200630&amp;rf=https%3A%2F%2Facuiti-preview.abbviepro.com%2F&amp;bp=3&amp;app=c68a93205a30c351&amp;crc=3875169855&amp;en=oao3vfhf&amp;end=1</v>
       </c>
       <c r="B33">
         <v>200</v>
@@ -668,7 +668,7 @@
     </row>
     <row r="34">
       <c r="A34" t="str">
-        <v>https://cag.abbvie.com:9999/bf/16a183f6-c871-4082-850b-a1f7a2ecd0b1?type=js3&amp;sn=v_4_srv_2_sn_8GGUS5JQ2GI091IACPNU5PR1VGC4KCOM_app-3Ac68a93205a30c351_1_ol_0_perc_100000_mul_1&amp;svrid=2&amp;flavor=cors&amp;vi=CMEKKPKEEDVWAVUFDPRMQAALARGJQUPT-0&amp;modifiedSince=1718215562229&amp;rf=https%3A%2F%2Facuiti-preview.abbviepro.com%2F&amp;bp=3&amp;app=c68a93205a30c351&amp;crc=2313930487&amp;en=oao3vfhf&amp;end=1</v>
+        <v>https://cag.abbvie.com:9999/bf/16a183f6-c871-4082-850b-a1f7a2ecd0b1?type=js3&amp;sn=v_4_srv_8_sn_C7A8HPT2NH63CA53SEI0IFGTJVI820KJ_app-3Ac68a93205a30c351_1_ol_0_perc_100000_mul_1&amp;svrid=8&amp;flavor=cors&amp;vi=QCSNFVHKSMDFCFCMHAHRUKLQJVAADNIB-0&amp;modifiedSince=1720290200630&amp;rf=https%3A%2F%2Facuiti-preview.abbviepro.com%2F&amp;bp=3&amp;app=c68a93205a30c351&amp;crc=4254139858&amp;en=oao3vfhf&amp;end=1</v>
       </c>
       <c r="B34">
         <v>200</v>
@@ -676,7 +676,7 @@
     </row>
     <row r="35">
       <c r="A35" t="str">
-        <v>https://cag.abbvie.com:9999/bf/16a183f6-c871-4082-850b-a1f7a2ecd0b1?type=js3&amp;sn=v_4_srv_2_sn_8GGUS5JQ2GI091IACPNU5PR1VGC4KCOM_app-3Ac68a93205a30c351_1_ol_0_perc_100000_mul_1&amp;svrid=2&amp;flavor=cors&amp;vi=CMEKKPKEEDVWAVUFDPRMQAALARGJQUPT-0&amp;modifiedSince=1718215562229&amp;rf=https%3A%2F%2Facuiti-preview.abbviepro.com%2F&amp;bp=3&amp;app=c68a93205a30c351&amp;crc=2313930487&amp;en=oao3vfhf&amp;end=1</v>
+        <v>https://cag.abbvie.com:9999/bf/16a183f6-c871-4082-850b-a1f7a2ecd0b1?type=js3&amp;sn=v_4_srv_8_sn_C7A8HPT2NH63CA53SEI0IFGTJVI820KJ_app-3Ac68a93205a30c351_1_ol_0_perc_100000_mul_1&amp;svrid=8&amp;flavor=cors&amp;vi=QCSNFVHKSMDFCFCMHAHRUKLQJVAADNIB-0&amp;modifiedSince=1720290200630&amp;rf=https%3A%2F%2Facuiti-preview.abbviepro.com%2F&amp;bp=3&amp;app=c68a93205a30c351&amp;crc=4254139858&amp;en=oao3vfhf&amp;end=1</v>
       </c>
       <c r="B35">
         <v>200</v>
